--- a/downloads/e.g.dictionary.xlsx
+++ b/downloads/e.g.dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\Documents\GitHub\mdJSONdictio\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_04E4F54F1DA4DB28AC54EC957D8A2657997F6570" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B154DCA-1A7C-409D-A520-DCB271346EAA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="21324" windowHeight="10620" tabRatio="747"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="600">
   <si>
     <t>Notes</t>
   </si>
@@ -1418,12 +1419,6 @@
   </si>
   <si>
     <t>Estimated cover of body feathers on the captured bird; percent formatted as a decimal</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Country</t>
@@ -1834,7 +1829,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2327,9 +2322,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2659,78 +2653,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2738,14 +2732,14 @@
       <c r="E2" t="s">
         <v>405</v>
       </c>
-      <c r="F2" t="s">
-        <v>466</v>
-      </c>
-      <c r="I2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +2753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2773,15 +2767,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2789,22 +2783,22 @@
       <c r="E5" t="s">
         <v>414</v>
       </c>
-      <c r="F5" t="s">
-        <v>466</v>
+      <c r="F5" t="b">
+        <v>0</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2812,22 +2806,22 @@
       <c r="E6" t="s">
         <v>414</v>
       </c>
-      <c r="F6" t="s">
-        <v>466</v>
+      <c r="F6" t="b">
+        <v>0</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2835,22 +2829,22 @@
       <c r="E7" t="s">
         <v>436</v>
       </c>
-      <c r="F7" t="s">
-        <v>465</v>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D8" t="s">
         <v>462</v>
@@ -2858,8 +2852,8 @@
       <c r="E8" t="s">
         <v>414</v>
       </c>
-      <c r="F8" t="s">
-        <v>465</v>
+      <c r="F8" t="b">
+        <v>1</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -2871,15 +2865,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2887,8 +2881,8 @@
       <c r="E9" t="s">
         <v>414</v>
       </c>
-      <c r="F9" t="s">
-        <v>465</v>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -2897,75 +2891,75 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E10" t="s">
         <v>408</v>
       </c>
-      <c r="F10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" t="s">
         <v>596</v>
-      </c>
-      <c r="B11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C11" t="s">
-        <v>592</v>
-      </c>
-      <c r="D11" t="s">
-        <v>598</v>
       </c>
       <c r="E11" t="s">
         <v>409</v>
       </c>
-      <c r="F11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E12" t="s">
         <v>409</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>467</v>
-      </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -2973,22 +2967,22 @@
       <c r="E13" t="s">
         <v>443</v>
       </c>
-      <c r="F13" t="s">
-        <v>465</v>
-      </c>
-      <c r="I13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -2996,16 +2990,16 @@
       <c r="E14" t="s">
         <v>443</v>
       </c>
-      <c r="F14" t="s">
-        <v>465</v>
-      </c>
-      <c r="I14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -3017,9 +3011,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -3031,9 +3025,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -3045,9 +3039,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -3059,9 +3053,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -3073,15 +3067,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
@@ -3089,16 +3083,16 @@
       <c r="E20" t="s">
         <v>443</v>
       </c>
-      <c r="F20" t="s">
-        <v>465</v>
-      </c>
-      <c r="I20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -3110,9 +3104,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -3124,9 +3118,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -3138,9 +3132,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -3152,9 +3146,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -3166,9 +3160,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -3180,15 +3174,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
@@ -3196,16 +3190,16 @@
       <c r="E27" t="s">
         <v>443</v>
       </c>
-      <c r="F27" t="s">
-        <v>465</v>
-      </c>
-      <c r="I27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -3214,12 +3208,12 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -3231,9 +3225,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
@@ -3245,9 +3239,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -3259,9 +3253,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -3273,9 +3267,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3287,9 +3281,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -3301,9 +3295,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
@@ -3315,9 +3309,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
@@ -3329,9 +3323,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
@@ -3340,32 +3334,32 @@
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B38" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C38" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D38" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D39" t="s">
         <v>461</v>
@@ -3373,22 +3367,22 @@
       <c r="E39" t="s">
         <v>443</v>
       </c>
-      <c r="F39" t="s">
-        <v>465</v>
-      </c>
-      <c r="I39" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C40" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D40" t="s">
         <v>463</v>
@@ -3396,22 +3390,22 @@
       <c r="E40" t="s">
         <v>443</v>
       </c>
-      <c r="F40" t="s">
-        <v>465</v>
-      </c>
-      <c r="I40" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D41" t="s">
         <v>62</v>
@@ -3419,22 +3413,22 @@
       <c r="E41" t="s">
         <v>427</v>
       </c>
-      <c r="F41" t="s">
-        <v>465</v>
+      <c r="F41" t="b">
+        <v>1</v>
       </c>
       <c r="G41" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C42" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
@@ -3442,68 +3436,68 @@
       <c r="E42" t="s">
         <v>427</v>
       </c>
-      <c r="F42" t="s">
-        <v>465</v>
+      <c r="F42" t="b">
+        <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C43" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D43" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E43" t="s">
         <v>443</v>
       </c>
-      <c r="F43" t="s">
-        <v>465</v>
-      </c>
-      <c r="I43" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C44" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D44" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E44" t="s">
         <v>443</v>
       </c>
-      <c r="F44" t="s">
-        <v>465</v>
-      </c>
-      <c r="I44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C45" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D45" t="s">
         <v>70</v>
@@ -3511,19 +3505,19 @@
       <c r="E45" t="s">
         <v>431</v>
       </c>
-      <c r="F45" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D46" t="s">
         <v>72</v>
@@ -3531,36 +3525,36 @@
       <c r="E46" t="s">
         <v>431</v>
       </c>
-      <c r="F46" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B47" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C47" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D47" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E47" t="s">
         <v>405</v>
       </c>
-      <c r="F47" t="s">
-        <v>465</v>
-      </c>
-      <c r="I47" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3572,9 +3566,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -3586,9 +3580,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -3600,9 +3594,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -3614,9 +3608,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3628,9 +3622,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -3642,9 +3636,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
@@ -3656,9 +3650,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
@@ -3670,23 +3664,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B56" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C56" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D56" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B57" t="s">
         <v>66</v>
@@ -3695,49 +3689,49 @@
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B58" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C58" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D58" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B59" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C59" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D59" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E59" t="s">
         <v>443</v>
       </c>
-      <c r="F59" t="s">
-        <v>466</v>
+      <c r="F59" t="b">
+        <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B60" t="s">
         <v>82</v>
@@ -3749,9 +3743,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
@@ -3763,9 +3757,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B62">
         <v>300</v>
@@ -3777,9 +3771,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B63">
         <v>301</v>
@@ -3791,9 +3785,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B64">
         <v>310</v>
@@ -3805,9 +3799,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B65">
         <v>315</v>
@@ -3819,9 +3813,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B66">
         <v>317</v>
@@ -3833,9 +3827,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B67">
         <v>318</v>
@@ -3847,9 +3841,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B68">
         <v>319</v>
@@ -3861,9 +3855,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B69">
         <v>325</v>
@@ -3875,9 +3869,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B70">
         <v>333</v>
@@ -3889,9 +3883,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B71">
         <v>334</v>
@@ -3903,9 +3897,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B72">
         <v>380</v>
@@ -3917,9 +3911,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B73">
         <v>381</v>
@@ -3931,9 +3925,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B74">
         <v>389</v>
@@ -3945,9 +3939,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B75">
         <v>390</v>
@@ -3959,2430 +3953,2430 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B76" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C76" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D76" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E76" t="s">
         <v>414</v>
       </c>
-      <c r="F76" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>544</v>
-      </c>
-      <c r="B77" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>542</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>542</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>544</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="D79" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>542</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>544</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>542</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>544</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>542</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D82" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>542</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>544</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D81" s="5" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>542</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>544</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>544</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D83" s="5" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>542</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>544</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D84" s="5" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>542</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>544</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>544</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C87" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D87" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E87" t="s">
         <v>443</v>
       </c>
-      <c r="F87" t="s">
-        <v>465</v>
-      </c>
-      <c r="I87" t="s">
-        <v>465</v>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="B88" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C102" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="D102" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C103" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+      <c r="D103" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" s="6" t="s">
+      <c r="D104" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="6" t="s">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="E105" t="s">
         <v>443</v>
       </c>
-      <c r="F105" t="s">
-        <v>465</v>
-      </c>
-      <c r="I105" t="s">
-        <v>465</v>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D106" s="6" t="s">
+      <c r="B106" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C120" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+      <c r="D120" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C121" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
+      <c r="D121" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C122" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B121" s="6" t="s">
+      <c r="D122" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D122" s="6" t="s">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="E123" t="s">
         <v>443</v>
       </c>
-      <c r="F123" t="s">
-        <v>465</v>
-      </c>
-      <c r="I123" t="s">
-        <v>465</v>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D124" s="6" t="s">
+      <c r="B124" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C138" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+      <c r="D138" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C139" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
+      <c r="D139" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C140" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B139" s="6" t="s">
+      <c r="D140" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>580</v>
+      <c r="B141" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="E141" t="s">
         <v>443</v>
       </c>
-      <c r="F141" t="s">
-        <v>465</v>
-      </c>
-      <c r="I141" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D142" s="6" t="s">
+      <c r="B142" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C156" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
+      <c r="D156" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C157" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
+      <c r="D157" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C158" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D156" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B157" s="6" t="s">
+      <c r="D158" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>581</v>
+      <c r="B159" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>579</v>
       </c>
       <c r="E159" t="s">
         <v>443</v>
       </c>
-      <c r="F159" t="s">
-        <v>465</v>
-      </c>
-      <c r="I159" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D160" s="6" t="s">
+      <c r="B160" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D171" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C174" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="s">
+      <c r="D174" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C175" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D173" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="s">
+      <c r="D175" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C176" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B175" s="6" t="s">
+      <c r="D176" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>582</v>
+      <c r="B177" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="E177" t="s">
         <v>443</v>
       </c>
-      <c r="F177" t="s">
-        <v>465</v>
-      </c>
-      <c r="I177" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D178" s="6" t="s">
+      <c r="B178" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D179" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D180" s="6" t="s">
+      <c r="D180" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D181" s="6" t="s">
+      <c r="D181" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D182" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D184" s="6" t="s">
+      <c r="D184" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D186" s="6" t="s">
+      <c r="D186" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D188" s="6" t="s">
+      <c r="D188" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D189" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="6" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C192" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D190" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
+      <c r="D192" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B193" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C193" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D191" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
+      <c r="D193" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B194" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C194" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D192" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B193" s="6" t="s">
+      <c r="D194" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C193" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="6" t="s">
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>583</v>
+      <c r="B195" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>581</v>
       </c>
       <c r="E195" t="s">
         <v>443</v>
       </c>
-      <c r="F195" t="s">
-        <v>465</v>
-      </c>
-      <c r="I195" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="6" t="s">
+      <c r="F195" t="b">
+        <v>1</v>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D196" s="6" t="s">
+      <c r="B196" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D198" s="6" t="s">
+      <c r="D198" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="s">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="D199" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="6" t="s">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D200" s="6" t="s">
+      <c r="D200" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="6" t="s">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D201" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="s">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D202" s="6" t="s">
+      <c r="D202" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="6" t="s">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D203" s="6" t="s">
+      <c r="D203" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="6" t="s">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D204" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="6" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D205" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="6" t="s">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D206" s="6" t="s">
+      <c r="D206" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="6" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C207" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D207" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="6" t="s">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C210" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D208" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="6" t="s">
+      <c r="D210" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B211" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C211" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D209" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="6" t="s">
+      <c r="D211" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B212" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C212" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D210" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B211" s="6" t="s">
+      <c r="D212" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="6" t="s">
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>584</v>
+      <c r="B213" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>582</v>
       </c>
       <c r="E213" t="s">
         <v>443</v>
       </c>
-      <c r="F213" t="s">
-        <v>465</v>
-      </c>
-      <c r="I213" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="s">
+      <c r="F213" t="b">
+        <v>1</v>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D214" s="6" t="s">
+      <c r="B214" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D214" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="6" t="s">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D215" s="6" t="s">
+      <c r="D215" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="6" t="s">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C216" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D216" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="6" t="s">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D217" s="6" t="s">
+      <c r="D217" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="6" t="s">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C218" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="D218" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="s">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C219" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D219" s="6" t="s">
+      <c r="D219" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="6" t="s">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C220" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D220" s="6" t="s">
+      <c r="D220" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C221" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D221" s="6" t="s">
+      <c r="D221" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="6" t="s">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D222" s="6" t="s">
+      <c r="D222" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="s">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C223" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D223" s="6" t="s">
+      <c r="D223" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="6" t="s">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="C224" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D224" s="6" t="s">
+      <c r="D224" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225" s="6" t="s">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C225" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D225" s="6" t="s">
+      <c r="D225" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C228" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D226" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="s">
+      <c r="D228" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B229" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C229" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D227" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="s">
+      <c r="D229" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B230" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C230" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D228" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B229" s="6" t="s">
+      <c r="D230" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D231" s="6" t="s">
+      <c r="B231" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D231" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E231" t="s">
         <v>443</v>
       </c>
-      <c r="F231" t="s">
-        <v>465</v>
-      </c>
-      <c r="I231" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232" s="6" t="s">
+      <c r="F231" t="b">
+        <v>1</v>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="C232" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D232" s="6" t="s">
+      <c r="D232" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233" s="6" t="s">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C233" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D233" s="6" t="s">
+      <c r="D233" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234" s="6" t="s">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D235" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A236" s="6" t="s">
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D236" s="6" t="s">
+      <c r="B236" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D236" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E236" t="s">
         <v>443</v>
       </c>
-      <c r="F236" t="s">
-        <v>465</v>
-      </c>
-      <c r="I236" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="s">
+      <c r="F236" t="b">
+        <v>1</v>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C237" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D237" s="6" t="s">
+      <c r="D237" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" s="6" t="s">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D238" s="6" t="s">
+      <c r="D238" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" s="6" t="s">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D240" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>143</v>
       </c>
       <c r="B241" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C241" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D241" t="s">
         <v>144</v>
@@ -6390,22 +6384,22 @@
       <c r="E241" t="s">
         <v>443</v>
       </c>
-      <c r="F241" t="s">
-        <v>465</v>
-      </c>
-      <c r="I241" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F241" t="b">
+        <v>1</v>
+      </c>
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>145</v>
       </c>
       <c r="B242" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C242" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D242" t="s">
         <v>146</v>
@@ -6413,22 +6407,22 @@
       <c r="E242" t="s">
         <v>443</v>
       </c>
-      <c r="F242" t="s">
-        <v>465</v>
-      </c>
-      <c r="I242" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F242" t="b">
+        <v>1</v>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>147</v>
       </c>
       <c r="B243" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C243" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D243" t="s">
         <v>148</v>
@@ -6436,45 +6430,45 @@
       <c r="E243" t="s">
         <v>443</v>
       </c>
-      <c r="F243" t="s">
-        <v>465</v>
-      </c>
-      <c r="I243" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F243" t="b">
+        <v>1</v>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>149</v>
       </c>
       <c r="B244" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C244" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D244" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E244" t="s">
         <v>443</v>
       </c>
-      <c r="F244" t="s">
-        <v>465</v>
-      </c>
-      <c r="I244" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F244" t="b">
+        <v>1</v>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>150</v>
       </c>
       <c r="B245" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C245" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D245" t="s">
         <v>151</v>
@@ -6482,14 +6476,14 @@
       <c r="E245" t="s">
         <v>443</v>
       </c>
-      <c r="F245" t="s">
-        <v>465</v>
-      </c>
-      <c r="I245" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F245" t="b">
+        <v>1</v>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>150</v>
       </c>
@@ -6503,7 +6497,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>150</v>
       </c>
@@ -6517,7 +6511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>150</v>
       </c>
@@ -6531,7 +6525,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>150</v>
       </c>
@@ -6545,7 +6539,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>150</v>
       </c>
@@ -6559,7 +6553,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>150</v>
       </c>
@@ -6573,7 +6567,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>150</v>
       </c>
@@ -6587,7 +6581,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>150</v>
       </c>
@@ -6601,15 +6595,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>168</v>
       </c>
       <c r="B254" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C254" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D254" t="s">
         <v>169</v>
@@ -6617,14 +6611,14 @@
       <c r="E254" t="s">
         <v>443</v>
       </c>
-      <c r="F254" t="s">
-        <v>465</v>
-      </c>
-      <c r="I254" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F254" t="b">
+        <v>1</v>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>168</v>
       </c>
@@ -6638,7 +6632,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>168</v>
       </c>
@@ -6652,7 +6646,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>168</v>
       </c>
@@ -6666,7 +6660,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>168</v>
       </c>
@@ -6680,7 +6674,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>168</v>
       </c>
@@ -6694,7 +6688,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>168</v>
       </c>
@@ -6708,7 +6702,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>168</v>
       </c>
@@ -6722,7 +6716,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>168</v>
       </c>
@@ -6736,15 +6730,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B263" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C263" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D263" t="s">
         <v>186</v>
@@ -6752,16 +6746,16 @@
       <c r="E263" t="s">
         <v>405</v>
       </c>
-      <c r="F263" t="s">
-        <v>465</v>
-      </c>
-      <c r="I263" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F263" t="b">
+        <v>1</v>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B264" t="s">
         <v>187</v>
@@ -6773,9 +6767,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B265" t="s">
         <v>78</v>
@@ -6787,9 +6781,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B266" t="s">
         <v>184</v>
@@ -6801,32 +6795,32 @@
         <v>185</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B267" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C267" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D267" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E267" t="s">
         <v>443</v>
       </c>
-      <c r="F267" t="s">
-        <v>465</v>
-      </c>
-      <c r="I267" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F267" t="b">
+        <v>1</v>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B268" t="s">
         <v>191</v>
@@ -6838,9 +6832,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B269" t="s">
         <v>193</v>
@@ -6852,9 +6846,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B270" t="s">
         <v>195</v>
@@ -6866,23 +6860,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>570</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B272" t="s">
         <v>197</v>
@@ -6894,205 +6888,205 @@
         <v>198</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>570</v>
-      </c>
-      <c r="B273" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>568</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>568</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C275" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D273" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>570</v>
-      </c>
-      <c r="B274" s="4" t="s">
+      <c r="D275" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>568</v>
+      </c>
+      <c r="B276" t="s">
         <v>472</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C276" t="s">
         <v>472</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>570</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>570</v>
-      </c>
-      <c r="B276" t="s">
-        <v>474</v>
-      </c>
-      <c r="C276" t="s">
-        <v>474</v>
       </c>
       <c r="D276" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>570</v>
-      </c>
-      <c r="B277" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>568</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C278" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D277" s="4" t="s">
+      <c r="D278" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>570</v>
-      </c>
-      <c r="B278" s="4" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>568</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D279" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="D278" s="4" t="s">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>568</v>
+      </c>
+      <c r="B280" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>570</v>
-      </c>
-      <c r="B279" s="4" t="s">
+      <c r="C280" t="s">
+        <v>502</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>568</v>
+      </c>
+      <c r="B281" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C281" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>570</v>
-      </c>
-      <c r="B280" t="s">
+      <c r="D281" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>568</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C282" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D280" s="4" t="s">
+      <c r="D282" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>570</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>570</v>
-      </c>
-      <c r="B282" s="4" t="s">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>568</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>568</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C282" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D282" s="4" t="s">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>568</v>
+      </c>
+      <c r="B285" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>570</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>570</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D284" s="4" t="s">
+      <c r="C285" t="s">
+        <v>507</v>
+      </c>
+      <c r="D285" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>570</v>
-      </c>
-      <c r="B285" t="s">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>568</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C285" t="s">
-        <v>509</v>
-      </c>
-      <c r="D285" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>570</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B287" t="s">
         <v>202</v>
@@ -7104,23 +7098,23 @@
         <v>203</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>570</v>
-      </c>
-      <c r="B288" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B288" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D288" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D288" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B289" t="s">
         <v>204</v>
@@ -7132,88 +7126,88 @@
         <v>205</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>570</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D290" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>568</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>568</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>568</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D293" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>570</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>570</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="D292" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>570</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="D293" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B294" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C294" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D294" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E294" t="s">
         <v>443</v>
       </c>
-      <c r="F294" t="s">
-        <v>465</v>
-      </c>
-      <c r="I294" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F294" t="b">
+        <v>1</v>
+      </c>
+      <c r="I294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B295" t="s">
         <v>193</v>
@@ -7225,9 +7219,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B296" t="s">
         <v>195</v>
@@ -7239,37 +7233,37 @@
         <v>196</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B297" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C297" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D297" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B298" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C298" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D298" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B299" t="s">
         <v>199</v>
@@ -7278,110 +7272,110 @@
         <v>199</v>
       </c>
       <c r="D299" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B300" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C300" t="s">
-        <v>473</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B301" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C301" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D301" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B302" t="s">
+        <v>473</v>
+      </c>
+      <c r="C302" t="s">
+        <v>473</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>569</v>
+      </c>
+      <c r="B303" t="s">
+        <v>474</v>
+      </c>
+      <c r="C303" t="s">
+        <v>474</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>569</v>
+      </c>
+      <c r="B304" t="s">
         <v>475</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C304" t="s">
         <v>475</v>
       </c>
-      <c r="D302" s="4" t="s">
+      <c r="D304" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>571</v>
-      </c>
-      <c r="B303" t="s">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>569</v>
+      </c>
+      <c r="B305" t="s">
         <v>476</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C305" t="s">
         <v>476</v>
       </c>
-      <c r="D303" s="4" t="s">
+      <c r="D305" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>571</v>
-      </c>
-      <c r="B304" t="s">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>569</v>
+      </c>
+      <c r="B306" t="s">
         <v>477</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C306" t="s">
         <v>477</v>
       </c>
-      <c r="D304" s="4" t="s">
+      <c r="D306" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>571</v>
-      </c>
-      <c r="B305" t="s">
-        <v>478</v>
-      </c>
-      <c r="C305" t="s">
-        <v>478</v>
-      </c>
-      <c r="D305" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>571</v>
-      </c>
-      <c r="B306" t="s">
-        <v>479</v>
-      </c>
-      <c r="C306" t="s">
-        <v>479</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B307" t="s">
         <v>202</v>
@@ -7393,9 +7387,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B308" t="s">
         <v>204</v>
@@ -7404,12 +7398,12 @@
         <v>204</v>
       </c>
       <c r="D308" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B309" t="s">
         <v>206</v>
@@ -7421,23 +7415,23 @@
         <v>207</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B310" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C310" t="s">
-        <v>480</v>
-      </c>
-      <c r="D310" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B311" t="s">
         <v>208</v>
@@ -7449,43 +7443,43 @@
         <v>209</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B312" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C312" t="s">
-        <v>481</v>
-      </c>
-      <c r="D312" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B313" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C313" t="s">
-        <v>482</v>
-      </c>
-      <c r="D313" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>210</v>
       </c>
       <c r="B314" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C314" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D314" t="s">
         <v>211</v>
@@ -7493,22 +7487,22 @@
       <c r="E314" t="s">
         <v>427</v>
       </c>
-      <c r="F314" t="s">
-        <v>465</v>
+      <c r="F314" t="b">
+        <v>1</v>
       </c>
       <c r="G314" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>212</v>
       </c>
       <c r="B315" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C315" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D315" t="s">
         <v>213</v>
@@ -7516,11 +7510,11 @@
       <c r="E315" t="s">
         <v>414</v>
       </c>
-      <c r="F315" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>212</v>
       </c>
@@ -7534,7 +7528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>212</v>
       </c>
@@ -7548,7 +7542,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>212</v>
       </c>
@@ -7562,7 +7556,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>212</v>
       </c>
@@ -7573,10 +7567,10 @@
         <v>3</v>
       </c>
       <c r="D319" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>212</v>
       </c>
@@ -7590,7 +7584,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>212</v>
       </c>
@@ -7601,10 +7595,10 @@
         <v>5</v>
       </c>
       <c r="D321" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>212</v>
       </c>
@@ -7615,10 +7609,10 @@
         <v>6</v>
       </c>
       <c r="D322" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>212</v>
       </c>
@@ -7629,18 +7623,18 @@
         <v>7</v>
       </c>
       <c r="D323" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>218</v>
       </c>
       <c r="B324" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C324" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D324" t="s">
         <v>219</v>
@@ -7648,8 +7642,8 @@
       <c r="E324" t="s">
         <v>427</v>
       </c>
-      <c r="F324" t="s">
-        <v>465</v>
+      <c r="F324" t="b">
+        <v>1</v>
       </c>
       <c r="G324" t="s">
         <v>447</v>
@@ -7664,15 +7658,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>220</v>
       </c>
       <c r="B325" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C325" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D325" t="s">
         <v>221</v>
@@ -7680,8 +7674,8 @@
       <c r="E325" t="s">
         <v>427</v>
       </c>
-      <c r="F325" t="s">
-        <v>465</v>
+      <c r="F325" t="b">
+        <v>1</v>
       </c>
       <c r="G325" t="s">
         <v>447</v>
@@ -7696,15 +7690,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>222</v>
       </c>
       <c r="B326" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C326" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D326" t="s">
         <v>223</v>
@@ -7712,8 +7706,8 @@
       <c r="E326" t="s">
         <v>427</v>
       </c>
-      <c r="F326" t="s">
-        <v>465</v>
+      <c r="F326" t="b">
+        <v>1</v>
       </c>
       <c r="G326" t="s">
         <v>447</v>
@@ -7728,15 +7722,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>224</v>
       </c>
       <c r="B327" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C327" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D327" t="s">
         <v>225</v>
@@ -7744,8 +7738,8 @@
       <c r="E327" t="s">
         <v>427</v>
       </c>
-      <c r="F327" t="s">
-        <v>465</v>
+      <c r="F327" t="b">
+        <v>1</v>
       </c>
       <c r="G327" t="s">
         <v>447</v>
@@ -7754,15 +7748,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>226</v>
       </c>
       <c r="B328" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C328" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D328" t="s">
         <v>227</v>
@@ -7770,8 +7764,8 @@
       <c r="E328" t="s">
         <v>427</v>
       </c>
-      <c r="F328" t="s">
-        <v>465</v>
+      <c r="F328" t="b">
+        <v>1</v>
       </c>
       <c r="G328" t="s">
         <v>447</v>
@@ -7780,15 +7774,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>228</v>
       </c>
       <c r="B329" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C329" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D329" t="s">
         <v>229</v>
@@ -7796,8 +7790,8 @@
       <c r="E329" t="s">
         <v>427</v>
       </c>
-      <c r="F329" t="s">
-        <v>465</v>
+      <c r="F329" t="b">
+        <v>1</v>
       </c>
       <c r="G329" t="s">
         <v>447</v>
@@ -7806,44 +7800,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="3" t="s">
+    <row r="330" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B330" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E330" s="3" t="s">
+      <c r="B330" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E330" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F330" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G330" s="3" t="s">
+      <c r="F330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H330" s="3">
+      <c r="H330" s="2">
         <v>0.1</v>
       </c>
       <c r="J330"/>
       <c r="K330"/>
       <c r="N330"/>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>231</v>
       </c>
       <c r="B331" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C331" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D331" t="s">
         <v>232</v>
@@ -7851,25 +7845,25 @@
       <c r="E331" t="s">
         <v>427</v>
       </c>
-      <c r="F331" t="s">
-        <v>465</v>
+      <c r="F331" t="b">
+        <v>1</v>
       </c>
       <c r="G331" t="s">
         <v>447</v>
       </c>
-      <c r="H331" s="3">
+      <c r="H331" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>233</v>
       </c>
       <c r="B332" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C332" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D332" t="s">
         <v>234</v>
@@ -7877,22 +7871,22 @@
       <c r="E332" t="s">
         <v>427</v>
       </c>
-      <c r="F332" t="s">
-        <v>465</v>
+      <c r="F332" t="b">
+        <v>1</v>
       </c>
       <c r="G332" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>235</v>
       </c>
       <c r="B333" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C333" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D333" t="s">
         <v>236</v>
@@ -7900,22 +7894,22 @@
       <c r="E333" t="s">
         <v>427</v>
       </c>
-      <c r="F333" t="s">
-        <v>465</v>
+      <c r="F333" t="b">
+        <v>1</v>
       </c>
       <c r="G333" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>237</v>
       </c>
       <c r="B334" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C334" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D334" t="s">
         <v>238</v>
@@ -7923,22 +7917,22 @@
       <c r="E334" t="s">
         <v>427</v>
       </c>
-      <c r="F334" t="s">
-        <v>465</v>
+      <c r="F334" t="b">
+        <v>1</v>
       </c>
       <c r="G334" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>239</v>
       </c>
       <c r="B335" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C335" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D335" t="s">
         <v>240</v>
@@ -7946,22 +7940,22 @@
       <c r="E335" t="s">
         <v>427</v>
       </c>
-      <c r="F335" t="s">
-        <v>465</v>
+      <c r="F335" t="b">
+        <v>1</v>
       </c>
       <c r="G335" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>241</v>
       </c>
       <c r="B336" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C336" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D336" t="s">
         <v>242</v>
@@ -7969,22 +7963,22 @@
       <c r="E336" t="s">
         <v>427</v>
       </c>
-      <c r="F336" t="s">
-        <v>465</v>
+      <c r="F336" t="b">
+        <v>1</v>
       </c>
       <c r="G336" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>243</v>
       </c>
       <c r="B337" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C337" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D337" t="s">
         <v>244</v>
@@ -7992,22 +7986,22 @@
       <c r="E337" t="s">
         <v>427</v>
       </c>
-      <c r="F337" t="s">
-        <v>465</v>
+      <c r="F337" t="b">
+        <v>1</v>
       </c>
       <c r="G337" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>245</v>
       </c>
       <c r="B338" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C338" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D338" t="s">
         <v>246</v>
@@ -8015,22 +8009,22 @@
       <c r="E338" t="s">
         <v>427</v>
       </c>
-      <c r="F338" t="s">
-        <v>465</v>
+      <c r="F338" t="b">
+        <v>1</v>
       </c>
       <c r="G338" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>247</v>
       </c>
       <c r="B339" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C339" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D339" t="s">
         <v>248</v>
@@ -8038,11 +8032,11 @@
       <c r="E339" t="s">
         <v>414</v>
       </c>
-      <c r="F339" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>247</v>
       </c>
@@ -8056,7 +8050,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>247</v>
       </c>
@@ -8070,7 +8064,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>247</v>
       </c>
@@ -8084,7 +8078,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>247</v>
       </c>
@@ -8098,15 +8092,15 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>253</v>
       </c>
       <c r="B344" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C344" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D344" t="s">
         <v>254</v>
@@ -8114,14 +8108,14 @@
       <c r="E344" t="s">
         <v>405</v>
       </c>
-      <c r="F344" t="s">
-        <v>465</v>
-      </c>
-      <c r="I344" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F344" t="b">
+        <v>1</v>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>253</v>
       </c>
@@ -8135,7 +8129,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>253</v>
       </c>
@@ -8149,7 +8143,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>253</v>
       </c>
@@ -8163,7 +8157,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>253</v>
       </c>
@@ -8177,7 +8171,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>253</v>
       </c>
@@ -8191,7 +8185,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>253</v>
       </c>
@@ -8205,7 +8199,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>253</v>
       </c>
@@ -8219,15 +8213,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>444</v>
       </c>
       <c r="B352" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C352" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D352" t="s">
         <v>464</v>
@@ -8235,8 +8229,8 @@
       <c r="E352" t="s">
         <v>427</v>
       </c>
-      <c r="F352" t="s">
-        <v>465</v>
+      <c r="F352" t="b">
+        <v>1</v>
       </c>
       <c r="L352">
         <v>0</v>
@@ -8245,15 +8239,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>263</v>
       </c>
       <c r="B353" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C353" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D353" t="s">
         <v>264</v>
@@ -8261,22 +8255,22 @@
       <c r="E353" t="s">
         <v>404</v>
       </c>
-      <c r="F353" t="s">
-        <v>465</v>
-      </c>
-      <c r="I353" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F353" t="b">
+        <v>1</v>
+      </c>
+      <c r="I353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>265</v>
       </c>
       <c r="B354" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C354" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D354" t="s">
         <v>266</v>
@@ -8284,14 +8278,14 @@
       <c r="E354" t="s">
         <v>405</v>
       </c>
-      <c r="F354" t="s">
-        <v>465</v>
-      </c>
-      <c r="I354" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F354" t="b">
+        <v>1</v>
+      </c>
+      <c r="I354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>265</v>
       </c>
@@ -8305,7 +8299,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>265</v>
       </c>
@@ -8319,7 +8313,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>265</v>
       </c>
@@ -8333,7 +8327,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>265</v>
       </c>
@@ -8347,7 +8341,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>265</v>
       </c>
@@ -8361,7 +8355,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>265</v>
       </c>
@@ -8375,7 +8369,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>265</v>
       </c>
@@ -8389,7 +8383,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>265</v>
       </c>
@@ -8403,7 +8397,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>265</v>
       </c>
@@ -8417,7 +8411,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>265</v>
       </c>
@@ -8431,7 +8425,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>265</v>
       </c>
@@ -8445,15 +8439,15 @@
         <v>280</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>281</v>
       </c>
       <c r="B366" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C366" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D366" t="s">
         <v>282</v>
@@ -8461,11 +8455,11 @@
       <c r="E366" t="s">
         <v>414</v>
       </c>
-      <c r="F366" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>281</v>
       </c>
@@ -8479,7 +8473,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>281</v>
       </c>
@@ -8493,7 +8487,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>281</v>
       </c>
@@ -8507,7 +8501,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>281</v>
       </c>
@@ -8521,7 +8515,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>281</v>
       </c>
@@ -8535,15 +8529,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>288</v>
       </c>
       <c r="B372" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C372" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D372" t="s">
         <v>289</v>
@@ -8551,11 +8545,11 @@
       <c r="E372" t="s">
         <v>414</v>
       </c>
-      <c r="F372" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>288</v>
       </c>
@@ -8569,7 +8563,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>288</v>
       </c>
@@ -8583,7 +8577,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>288</v>
       </c>
@@ -8597,7 +8591,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>288</v>
       </c>
@@ -8611,15 +8605,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>294</v>
       </c>
       <c r="B377" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C377" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D377" t="s">
         <v>295</v>
@@ -8627,14 +8621,14 @@
       <c r="E377" t="s">
         <v>405</v>
       </c>
-      <c r="F377" t="s">
-        <v>465</v>
-      </c>
-      <c r="I377" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F377" t="b">
+        <v>1</v>
+      </c>
+      <c r="I377" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>294</v>
       </c>
@@ -8648,7 +8642,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>294</v>
       </c>
@@ -8662,7 +8656,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>294</v>
       </c>
@@ -8676,7 +8670,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>294</v>
       </c>
@@ -8690,15 +8684,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>301</v>
       </c>
       <c r="B382" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C382" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D382" t="s">
         <v>302</v>
@@ -8706,11 +8700,11 @@
       <c r="E382" t="s">
         <v>414</v>
       </c>
-      <c r="F382" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F382" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>301</v>
       </c>
@@ -8724,7 +8718,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>301</v>
       </c>
@@ -8738,7 +8732,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>301</v>
       </c>
@@ -8752,7 +8746,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>301</v>
       </c>
@@ -8766,7 +8760,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>301</v>
       </c>
@@ -8780,7 +8774,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>301</v>
       </c>
@@ -8794,15 +8788,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>308</v>
       </c>
       <c r="B389" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C389" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D389" t="s">
         <v>309</v>
@@ -8810,11 +8804,11 @@
       <c r="E389" t="s">
         <v>414</v>
       </c>
-      <c r="F389" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F389" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>308</v>
       </c>
@@ -8828,7 +8822,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>308</v>
       </c>
@@ -8842,7 +8836,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>308</v>
       </c>
@@ -8856,7 +8850,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>308</v>
       </c>
@@ -8870,15 +8864,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>314</v>
       </c>
       <c r="B394" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C394" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D394" t="s">
         <v>315</v>
@@ -8886,11 +8880,11 @@
       <c r="E394" t="s">
         <v>414</v>
       </c>
-      <c r="F394" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F394" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>314</v>
       </c>
@@ -8904,7 +8898,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>314</v>
       </c>
@@ -8918,7 +8912,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>314</v>
       </c>
@@ -8932,7 +8926,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>314</v>
       </c>
@@ -8946,7 +8940,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>314</v>
       </c>
@@ -8960,7 +8954,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>314</v>
       </c>
@@ -8974,15 +8968,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>316</v>
       </c>
       <c r="B401" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C401" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D401" t="s">
         <v>317</v>
@@ -8990,11 +8984,11 @@
       <c r="E401" t="s">
         <v>414</v>
       </c>
-      <c r="F401" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F401" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>316</v>
       </c>
@@ -9008,7 +9002,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>316</v>
       </c>
@@ -9022,7 +9016,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>316</v>
       </c>
@@ -9036,7 +9030,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>316</v>
       </c>
@@ -9050,15 +9044,15 @@
         <v>319</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>320</v>
       </c>
       <c r="B406" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C406" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D406" t="s">
         <v>321</v>
@@ -9066,22 +9060,22 @@
       <c r="E406" t="s">
         <v>404</v>
       </c>
-      <c r="F406" t="s">
-        <v>465</v>
-      </c>
-      <c r="I406" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F406" t="b">
+        <v>1</v>
+      </c>
+      <c r="I406" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>322</v>
       </c>
       <c r="B407" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C407" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D407" t="s">
         <v>323</v>
@@ -9089,22 +9083,22 @@
       <c r="E407" t="s">
         <v>404</v>
       </c>
-      <c r="F407" t="s">
-        <v>465</v>
-      </c>
-      <c r="I407" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F407" t="b">
+        <v>1</v>
+      </c>
+      <c r="I407" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>324</v>
       </c>
       <c r="B408" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C408" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D408" t="s">
         <v>325</v>
@@ -9112,22 +9106,22 @@
       <c r="E408" t="s">
         <v>404</v>
       </c>
-      <c r="F408" t="s">
-        <v>465</v>
-      </c>
-      <c r="I408" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F408" t="b">
+        <v>1</v>
+      </c>
+      <c r="I408" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>326</v>
       </c>
       <c r="B409" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C409" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D409" t="s">
         <v>327</v>
@@ -9135,22 +9129,22 @@
       <c r="E409" t="s">
         <v>404</v>
       </c>
-      <c r="F409" t="s">
-        <v>465</v>
-      </c>
-      <c r="I409" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F409" t="b">
+        <v>1</v>
+      </c>
+      <c r="I409" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>328</v>
       </c>
       <c r="B410" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C410" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D410" t="s">
         <v>329</v>
@@ -9158,22 +9152,22 @@
       <c r="E410" t="s">
         <v>404</v>
       </c>
-      <c r="F410" t="s">
-        <v>465</v>
-      </c>
-      <c r="I410" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F410" t="b">
+        <v>1</v>
+      </c>
+      <c r="I410" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>330</v>
       </c>
       <c r="B411" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C411" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D411" t="s">
         <v>331</v>
@@ -9181,22 +9175,22 @@
       <c r="E411" t="s">
         <v>404</v>
       </c>
-      <c r="F411" t="s">
-        <v>465</v>
-      </c>
-      <c r="I411" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F411" t="b">
+        <v>1</v>
+      </c>
+      <c r="I411" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>332</v>
       </c>
       <c r="B412" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C412" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D412" t="s">
         <v>333</v>
@@ -9204,22 +9198,22 @@
       <c r="E412" t="s">
         <v>404</v>
       </c>
-      <c r="F412" t="s">
-        <v>465</v>
-      </c>
-      <c r="I412" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F412" t="b">
+        <v>1</v>
+      </c>
+      <c r="I412" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>334</v>
       </c>
       <c r="B413" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C413" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D413" t="s">
         <v>335</v>
@@ -9227,22 +9221,22 @@
       <c r="E413" t="s">
         <v>404</v>
       </c>
-      <c r="F413" t="s">
-        <v>465</v>
-      </c>
-      <c r="I413" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F413" t="b">
+        <v>1</v>
+      </c>
+      <c r="I413" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>336</v>
       </c>
       <c r="B414" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C414" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D414" t="s">
         <v>337</v>
@@ -9250,22 +9244,22 @@
       <c r="E414" t="s">
         <v>404</v>
       </c>
-      <c r="F414" t="s">
-        <v>465</v>
-      </c>
-      <c r="I414" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F414" t="b">
+        <v>1</v>
+      </c>
+      <c r="I414" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>338</v>
       </c>
       <c r="B415" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C415" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D415" t="s">
         <v>339</v>
@@ -9273,22 +9267,22 @@
       <c r="E415" t="s">
         <v>404</v>
       </c>
-      <c r="F415" t="s">
-        <v>465</v>
-      </c>
-      <c r="I415" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F415" t="b">
+        <v>1</v>
+      </c>
+      <c r="I415" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>340</v>
       </c>
       <c r="B416" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C416" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D416" t="s">
         <v>341</v>
@@ -9296,22 +9290,22 @@
       <c r="E416" t="s">
         <v>404</v>
       </c>
-      <c r="F416" t="s">
-        <v>465</v>
-      </c>
-      <c r="I416" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F416" t="b">
+        <v>1</v>
+      </c>
+      <c r="I416" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>342</v>
       </c>
       <c r="B417" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C417" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D417" t="s">
         <v>343</v>
@@ -9319,39 +9313,39 @@
       <c r="E417" t="s">
         <v>404</v>
       </c>
-      <c r="F417" t="s">
-        <v>465</v>
-      </c>
-      <c r="I417" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F417" t="b">
+        <v>1</v>
+      </c>
+      <c r="I417" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B418" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C418" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D418" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E418" t="s">
         <v>443</v>
       </c>
-      <c r="F418" t="s">
-        <v>465</v>
-      </c>
-      <c r="I418" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F418" t="b">
+        <v>1</v>
+      </c>
+      <c r="I418" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B419" t="s">
         <v>344</v>
@@ -9363,9 +9357,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B420" t="s">
         <v>346</v>
@@ -9377,9 +9371,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B421" t="s">
         <v>132</v>
@@ -9391,9 +9385,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B422" t="s">
         <v>66</v>
@@ -9405,9 +9399,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B423" t="s">
         <v>350</v>
@@ -9419,9 +9413,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B424" t="s">
         <v>80</v>
@@ -9433,9 +9427,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B425" t="s">
         <v>353</v>
@@ -9447,9 +9441,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B426" t="s">
         <v>354</v>
@@ -9461,9 +9455,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B427" t="s">
         <v>355</v>
@@ -9475,9 +9469,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B428" t="s">
         <v>356</v>
@@ -9489,9 +9483,9 @@
         <v>455</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B429" t="s">
         <v>357</v>
@@ -9503,9 +9497,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B430" t="s">
         <v>359</v>
@@ -9517,15 +9511,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>360</v>
       </c>
       <c r="B431" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C431" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D431" t="s">
         <v>361</v>
@@ -9533,14 +9527,14 @@
       <c r="E431" t="s">
         <v>443</v>
       </c>
-      <c r="F431" t="s">
-        <v>465</v>
-      </c>
-      <c r="I431" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F431" t="b">
+        <v>1</v>
+      </c>
+      <c r="I431" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>360</v>
       </c>
@@ -9554,7 +9548,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>360</v>
       </c>
@@ -9568,7 +9562,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>360</v>
       </c>
@@ -9582,15 +9576,15 @@
         <v>458</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>362</v>
       </c>
       <c r="B435" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C435" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D435" t="s">
         <v>363</v>
@@ -9598,14 +9592,14 @@
       <c r="E435" t="s">
         <v>443</v>
       </c>
-      <c r="F435" t="s">
-        <v>465</v>
-      </c>
-      <c r="I435" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F435" t="b">
+        <v>1</v>
+      </c>
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>362</v>
       </c>
@@ -9619,7 +9613,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>362</v>
       </c>
@@ -9630,10 +9624,10 @@
         <v>364</v>
       </c>
       <c r="D437" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>362</v>
       </c>
@@ -9644,18 +9638,18 @@
         <v>365</v>
       </c>
       <c r="D438" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>366</v>
       </c>
       <c r="B439" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C439" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D439" t="s">
         <v>367</v>
@@ -9663,14 +9657,14 @@
       <c r="E439" t="s">
         <v>443</v>
       </c>
-      <c r="F439" t="s">
-        <v>465</v>
-      </c>
-      <c r="I439" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F439" t="b">
+        <v>1</v>
+      </c>
+      <c r="I439" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>366</v>
       </c>
@@ -9681,10 +9675,10 @@
         <v>370</v>
       </c>
       <c r="D440" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>366</v>
       </c>
@@ -9695,10 +9689,10 @@
         <v>371</v>
       </c>
       <c r="D441" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>366</v>
       </c>
@@ -9709,10 +9703,10 @@
         <v>372</v>
       </c>
       <c r="D442" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>366</v>
       </c>
@@ -9723,10 +9717,10 @@
         <v>373</v>
       </c>
       <c r="D443" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>366</v>
       </c>
@@ -9737,18 +9731,18 @@
         <v>374</v>
       </c>
       <c r="D444" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>368</v>
       </c>
       <c r="B445" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C445" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D445" t="s">
         <v>369</v>
@@ -9756,14 +9750,14 @@
       <c r="E445" t="s">
         <v>443</v>
       </c>
-      <c r="F445" t="s">
-        <v>465</v>
-      </c>
-      <c r="I445" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F445" t="b">
+        <v>1</v>
+      </c>
+      <c r="I445" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>368</v>
       </c>
@@ -9774,10 +9768,10 @@
         <v>370</v>
       </c>
       <c r="D446" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>368</v>
       </c>
@@ -9788,10 +9782,10 @@
         <v>371</v>
       </c>
       <c r="D447" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>368</v>
       </c>
@@ -9802,10 +9796,10 @@
         <v>372</v>
       </c>
       <c r="D448" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>368</v>
       </c>
@@ -9816,10 +9810,10 @@
         <v>373</v>
       </c>
       <c r="D449" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>368</v>
       </c>
@@ -9830,18 +9824,18 @@
         <v>374</v>
       </c>
       <c r="D450" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>375</v>
       </c>
       <c r="B451" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C451" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D451" t="s">
         <v>376</v>
@@ -9849,22 +9843,22 @@
       <c r="E451" t="s">
         <v>443</v>
       </c>
-      <c r="F451" t="s">
-        <v>465</v>
-      </c>
-      <c r="I451" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F451" t="b">
+        <v>1</v>
+      </c>
+      <c r="I451" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>377</v>
       </c>
       <c r="B452" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C452" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D452" t="s">
         <v>378</v>
@@ -9872,62 +9866,62 @@
       <c r="E452" t="s">
         <v>443</v>
       </c>
-      <c r="F452" t="s">
-        <v>465</v>
-      </c>
-      <c r="I452" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F452" t="b">
+        <v>1</v>
+      </c>
+      <c r="I452" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>379</v>
       </c>
       <c r="B453" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C453" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D453" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E453" t="s">
         <v>443</v>
       </c>
-      <c r="F453" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F453" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>380</v>
       </c>
       <c r="B454" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C454" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D454" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E454" t="s">
         <v>443</v>
       </c>
-      <c r="F454" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F454" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>381</v>
       </c>
       <c r="B455" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C455" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D455" t="s">
         <v>382</v>
@@ -9935,22 +9929,22 @@
       <c r="E455" t="s">
         <v>427</v>
       </c>
-      <c r="F455" t="s">
-        <v>465</v>
+      <c r="F455" t="b">
+        <v>1</v>
       </c>
       <c r="G455" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>383</v>
       </c>
       <c r="B456" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C456" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D456" t="s">
         <v>384</v>
@@ -9958,22 +9952,22 @@
       <c r="E456" t="s">
         <v>427</v>
       </c>
-      <c r="F456" t="s">
-        <v>465</v>
+      <c r="F456" t="b">
+        <v>1</v>
       </c>
       <c r="G456" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>385</v>
       </c>
       <c r="B457" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C457" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D457" t="s">
         <v>386</v>
@@ -9981,22 +9975,22 @@
       <c r="E457" t="s">
         <v>443</v>
       </c>
-      <c r="F457" t="s">
-        <v>465</v>
-      </c>
-      <c r="I457" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F457" t="b">
+        <v>1</v>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>387</v>
       </c>
       <c r="B458" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C458" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D458" t="s">
         <v>388</v>
@@ -10004,45 +9998,45 @@
       <c r="E458" t="s">
         <v>443</v>
       </c>
-      <c r="F458" t="s">
-        <v>465</v>
-      </c>
-      <c r="I458" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F458" t="b">
+        <v>1</v>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>389</v>
       </c>
       <c r="B459" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C459" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D459" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E459" t="s">
         <v>427</v>
       </c>
-      <c r="F459" t="s">
-        <v>465</v>
+      <c r="F459" t="b">
+        <v>1</v>
       </c>
       <c r="G459" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>390</v>
       </c>
       <c r="B460" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C460" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D460" t="s">
         <v>391</v>
@@ -10050,22 +10044,22 @@
       <c r="E460" t="s">
         <v>404</v>
       </c>
-      <c r="F460" t="s">
-        <v>465</v>
-      </c>
-      <c r="I460" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F460" t="b">
+        <v>1</v>
+      </c>
+      <c r="I460" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>0</v>
       </c>
       <c r="B461" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C461" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D461" t="s">
         <v>392</v>
@@ -10073,13 +10067,13 @@
       <c r="E461" t="s">
         <v>443</v>
       </c>
-      <c r="F461" t="s">
-        <v>465</v>
+      <c r="F461" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O461">
-    <sortState ref="A2:Q587">
+  <autoFilter ref="A1:O461" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q587">
       <sortCondition ref="F1:F587"/>
     </sortState>
   </autoFilter>
@@ -10087,15 +10081,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>validation_values!$B$1:$B$2</xm:f>
+            <xm:f>validation_values!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576 I2:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -10106,227 +10100,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>437</v>
       </c>
@@ -10338,21 +10332,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10561,10 +10540,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10587,20 +10592,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/downloads/e.g.dictionary.xlsx
+++ b/downloads/e.g.dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_04E4F54F1DA4DB28AC54EC957D8A2657997F6570" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B154DCA-1A7C-409D-A520-DCB271346EAA}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_04E4F54F1DA4DB28AC54EC957D8A2657997F6570" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA9A55A9-19E9-40E4-9BEF-6A67DBE08D3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2657,9 +2657,9 @@
   <dimension ref="A1:N461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10541,18 +10541,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10575,6 +10575,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -10589,12 +10597,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>